--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H2">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I2">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J2">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N2">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q2">
-        <v>34.87271963037156</v>
+        <v>70.34558510842288</v>
       </c>
       <c r="R2">
-        <v>313.854476673344</v>
+        <v>633.1102659758059</v>
       </c>
       <c r="S2">
-        <v>0.0002170223510702169</v>
+        <v>0.0004981871592925671</v>
       </c>
       <c r="T2">
-        <v>0.0002170223510702169</v>
+        <v>0.0004981871592925673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H3">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I3">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J3">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q3">
-        <v>47.37916206945778</v>
+        <v>166.8074007993494</v>
       </c>
       <c r="R3">
-        <v>426.4124586251199</v>
+        <v>1501.266607194145</v>
       </c>
       <c r="S3">
-        <v>0.0002948533195299002</v>
+        <v>0.001181329361680928</v>
       </c>
       <c r="T3">
-        <v>0.0002948533195299002</v>
+        <v>0.001181329361680928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H4">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I4">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J4">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N4">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O4">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P4">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q4">
-        <v>10.27598631540622</v>
+        <v>41.42141490867844</v>
       </c>
       <c r="R4">
-        <v>92.483876838656</v>
+        <v>372.7927341781059</v>
       </c>
       <c r="S4">
-        <v>6.395023770364515E-05</v>
+        <v>0.0002933462987823308</v>
       </c>
       <c r="T4">
-        <v>6.395023770364516E-05</v>
+        <v>0.000293346298782331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.335690666666667</v>
+        <v>8.223245666666665</v>
       </c>
       <c r="H5">
-        <v>7.007072</v>
+        <v>24.669737</v>
       </c>
       <c r="I5">
-        <v>0.0008591106367287776</v>
+        <v>0.003010099901484358</v>
       </c>
       <c r="J5">
-        <v>0.0008591106367287777</v>
+        <v>0.003010099901484359</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N5">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q5">
-        <v>45.52023725305246</v>
+        <v>146.461120182138</v>
       </c>
       <c r="R5">
-        <v>409.6821352774721</v>
+        <v>1318.150081639242</v>
       </c>
       <c r="S5">
-        <v>0.0002832847284250155</v>
+        <v>0.001037237081728531</v>
       </c>
       <c r="T5">
-        <v>0.0002832847284250155</v>
+        <v>0.001037237081728532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J6">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N6">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q6">
-        <v>40415.53233972168</v>
+        <v>23156.41862165932</v>
       </c>
       <c r="R6">
-        <v>363739.7910574951</v>
+        <v>208407.7675949339</v>
       </c>
       <c r="S6">
-        <v>0.2515167713068706</v>
+        <v>0.163993666336463</v>
       </c>
       <c r="T6">
-        <v>0.2515167713068707</v>
+        <v>0.163993666336463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J7">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q7">
-        <v>54909.79989927109</v>
+        <v>54909.79989927111</v>
       </c>
       <c r="R7">
-        <v>494188.1990934398</v>
+        <v>494188.1990934399</v>
       </c>
       <c r="S7">
-        <v>0.3417185122710202</v>
+        <v>0.3888709886623112</v>
       </c>
       <c r="T7">
-        <v>0.3417185122710202</v>
+        <v>0.3888709886623113</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J8">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N8">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O8">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P8">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q8">
-        <v>11909.29361560702</v>
+        <v>13635.13605080458</v>
       </c>
       <c r="R8">
-        <v>107183.6425404632</v>
+        <v>122716.2244572412</v>
       </c>
       <c r="S8">
-        <v>0.07411475008085054</v>
+        <v>0.09656398031586859</v>
       </c>
       <c r="T8">
-        <v>0.07411475008085057</v>
+        <v>0.09656398031586862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.9956611956318718</v>
+        <v>0.9908672065823976</v>
       </c>
       <c r="J9">
-        <v>0.9956611956318719</v>
+        <v>0.9908672065823977</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N9">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q9">
-        <v>52755.40996837772</v>
+        <v>48212.19420532844</v>
       </c>
       <c r="R9">
-        <v>474798.6897153994</v>
+        <v>433909.7478479559</v>
       </c>
       <c r="S9">
-        <v>0.3283111619731305</v>
+        <v>0.3414385712677546</v>
       </c>
       <c r="T9">
-        <v>0.3283111619731306</v>
+        <v>0.3414385712677547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H10">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J10">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N10">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q10">
-        <v>125.0392086255942</v>
+        <v>120.9894857359151</v>
       </c>
       <c r="R10">
-        <v>1125.352877630348</v>
+        <v>1088.905371623236</v>
       </c>
       <c r="S10">
-        <v>0.0007781527600804638</v>
+        <v>0.0008568470659550603</v>
       </c>
       <c r="T10">
-        <v>0.0007781527600804638</v>
+        <v>0.0008568470659550605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H11">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J11">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N11">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q11">
-        <v>169.8821598459211</v>
+        <v>286.8970612519856</v>
       </c>
       <c r="R11">
-        <v>1528.93943861329</v>
+        <v>2582.07355126787</v>
       </c>
       <c r="S11">
-        <v>0.001057222554633757</v>
+        <v>0.002031803868490372</v>
       </c>
       <c r="T11">
-        <v>0.001057222554633757</v>
+        <v>0.002031803868490373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H12">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J12">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N12">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O12">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P12">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q12">
-        <v>36.84545427901689</v>
+        <v>71.24193622855955</v>
       </c>
       <c r="R12">
-        <v>331.609088511152</v>
+        <v>641.177426057036</v>
       </c>
       <c r="S12">
-        <v>0.0002292992114936242</v>
+        <v>0.0005045351144283633</v>
       </c>
       <c r="T12">
-        <v>0.0002292992114936242</v>
+        <v>0.0005045351144283636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.374824666666667</v>
+        <v>14.14340733333333</v>
       </c>
       <c r="H13">
-        <v>25.124474</v>
+        <v>42.430222</v>
       </c>
       <c r="I13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053701</v>
       </c>
       <c r="J13">
-        <v>0.003080416878207562</v>
+        <v>0.005177161275053702</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N13">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q13">
-        <v>163.2168211398638</v>
+        <v>251.902881806028</v>
       </c>
       <c r="R13">
-        <v>1468.951390258774</v>
+        <v>2267.125936254252</v>
       </c>
       <c r="S13">
-        <v>0.001015742351999717</v>
+        <v>0.001783975226179904</v>
       </c>
       <c r="T13">
-        <v>0.001015742351999717</v>
+        <v>0.001783975226179904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H14">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J14">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N14">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O14">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P14">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q14">
-        <v>16.20730690667311</v>
+        <v>22.09694724874333</v>
       </c>
       <c r="R14">
-        <v>145.865762160058</v>
+        <v>198.87252523869</v>
       </c>
       <c r="S14">
-        <v>0.0001008624473996979</v>
+        <v>0.0001564904942068788</v>
       </c>
       <c r="T14">
-        <v>0.0001008624473996979</v>
+        <v>0.0001564904942068788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H15">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J15">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N15">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O15">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P15">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q15">
-        <v>22.01975150719055</v>
+        <v>52.39752189824167</v>
       </c>
       <c r="R15">
-        <v>198.177763564715</v>
+        <v>471.577697084175</v>
       </c>
       <c r="S15">
-        <v>0.0001370348597047901</v>
+        <v>0.0003710790456603871</v>
       </c>
       <c r="T15">
-        <v>0.0001370348597047901</v>
+        <v>0.0003710790456603872</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H16">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J16">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N16">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O16">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P16">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q16">
-        <v>4.775826656132445</v>
+        <v>13.01129017257667</v>
       </c>
       <c r="R16">
-        <v>42.982439905192</v>
+        <v>117.10161155319</v>
       </c>
       <c r="S16">
-        <v>2.972125891537849E-05</v>
+        <v>9.214590624012212E-05</v>
       </c>
       <c r="T16">
-        <v>2.97212589153785E-05</v>
+        <v>9.214590624012214E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.085526333333333</v>
+        <v>2.583085</v>
       </c>
       <c r="H17">
-        <v>3.256579</v>
+        <v>7.749255</v>
       </c>
       <c r="I17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643118</v>
       </c>
       <c r="J17">
-        <v>0.0003992768531916849</v>
+        <v>0.0009455322410643119</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N17">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O17">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P17">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q17">
-        <v>21.15580498006989</v>
+        <v>46.00635052886999</v>
       </c>
       <c r="R17">
-        <v>190.4022448206291</v>
+        <v>414.05715475983</v>
       </c>
       <c r="S17">
-        <v>0.0001316582871718185</v>
+        <v>0.0003258167949569236</v>
       </c>
       <c r="T17">
-        <v>0.0001316582871718185</v>
+        <v>0.0003258167949569237</v>
       </c>
     </row>
   </sheetData>
